--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H2">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I2">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J2">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>3750.556405235594</v>
+        <v>5060.315870161186</v>
       </c>
       <c r="R2">
-        <v>33755.00764712034</v>
+        <v>45542.84283145067</v>
       </c>
       <c r="S2">
-        <v>0.01067715100270855</v>
+        <v>0.0119172464758138</v>
       </c>
       <c r="T2">
-        <v>0.0128939463704254</v>
+        <v>0.01440223603558307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H3">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I3">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J3">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>4013.635573334557</v>
+        <v>6138.776121708752</v>
       </c>
       <c r="R3">
-        <v>36122.72016001101</v>
+        <v>55248.98509537878</v>
       </c>
       <c r="S3">
-        <v>0.01142608948008712</v>
+        <v>0.01445706354688749</v>
       </c>
       <c r="T3">
-        <v>0.01379837982459473</v>
+        <v>0.01747165689710878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H4">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I4">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J4">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>2015.377543566816</v>
+        <v>3465.64333413462</v>
       </c>
       <c r="R4">
-        <v>18138.39789210134</v>
+        <v>31190.79000721157</v>
       </c>
       <c r="S4">
-        <v>0.005737412808961352</v>
+        <v>0.008161728807025606</v>
       </c>
       <c r="T4">
-        <v>0.00692861729172631</v>
+        <v>0.009863616144531706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H5">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I5">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J5">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>4592.741527494401</v>
+        <v>3779.545247818309</v>
       </c>
       <c r="R5">
-        <v>27556.44916496641</v>
+        <v>22677.27148690985</v>
       </c>
       <c r="S5">
-        <v>0.01307469865991464</v>
+        <v>0.008900980381548164</v>
       </c>
       <c r="T5">
-        <v>0.01052618270470877</v>
+        <v>0.007171344525114493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H6">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I6">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J6">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>2302.58209519886</v>
+        <v>3728.379936701619</v>
       </c>
       <c r="R6">
-        <v>20723.23885678974</v>
+        <v>33555.41943031458</v>
       </c>
       <c r="S6">
-        <v>0.006555031859340069</v>
+        <v>0.008780484025345432</v>
       </c>
       <c r="T6">
-        <v>0.007915990813403296</v>
+        <v>0.01061139447743577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I7">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J7">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>28628.10392289509</v>
+        <v>25254.02771159671</v>
       </c>
       <c r="R7">
-        <v>257652.9353060558</v>
+        <v>227286.2494043704</v>
       </c>
       <c r="S7">
-        <v>0.08149899787649864</v>
+        <v>0.0594742463648902</v>
       </c>
       <c r="T7">
-        <v>0.09841986009155544</v>
+        <v>0.07187584279002456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I8">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J8">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>30636.19471011065</v>
+        <v>30636.19471011064</v>
       </c>
       <c r="R8">
         <v>275725.7523909958</v>
       </c>
       <c r="S8">
-        <v>0.08721566661725354</v>
+        <v>0.07214946513403758</v>
       </c>
       <c r="T8">
-        <v>0.1053234264213828</v>
+        <v>0.08719410384020959</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I9">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J9">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>15383.43422340174</v>
+        <v>17295.65012232296</v>
       </c>
       <c r="R9">
-        <v>138450.9080106156</v>
+        <v>155660.8511009066</v>
       </c>
       <c r="S9">
-        <v>0.04379383547310695</v>
+        <v>0.0407319485098855</v>
       </c>
       <c r="T9">
-        <v>0.05288633323648122</v>
+        <v>0.04922539261222482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I10">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J10">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>35056.52696132337</v>
+        <v>18862.20996370271</v>
       </c>
       <c r="R10">
-        <v>210339.1617679402</v>
+        <v>113173.2597822162</v>
       </c>
       <c r="S10">
-        <v>0.09979954746822724</v>
+        <v>0.04442125965722294</v>
       </c>
       <c r="T10">
-        <v>0.08034665255563715</v>
+        <v>0.03578933371226094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I11">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J11">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>17575.67475064004</v>
+        <v>18606.86420704104</v>
       </c>
       <c r="R11">
-        <v>158181.0727557603</v>
+        <v>167461.7778633694</v>
       </c>
       <c r="S11">
-        <v>0.05003474498480122</v>
+        <v>0.04381991017691998</v>
       </c>
       <c r="T11">
-        <v>0.06042298346518457</v>
+        <v>0.0529572574257724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H12">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I12">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J12">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>11714.12373716773</v>
+        <v>12761.64956090489</v>
       </c>
       <c r="R12">
-        <v>105427.1136345096</v>
+        <v>114854.846048144</v>
       </c>
       <c r="S12">
-        <v>0.0333479768046032</v>
+        <v>0.03005419565842642</v>
       </c>
       <c r="T12">
-        <v>0.04027170022899045</v>
+        <v>0.03632110996535338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H13">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I13">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J13">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>12535.79966863231</v>
+        <v>15481.42677417538</v>
       </c>
       <c r="R13">
-        <v>112822.1970176908</v>
+        <v>139332.8409675784</v>
       </c>
       <c r="S13">
-        <v>0.03568713853092509</v>
+        <v>0.03645937988832191</v>
       </c>
       <c r="T13">
-        <v>0.04309651986892015</v>
+        <v>0.04406190607270669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H14">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I14">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J14">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>6294.634547955254</v>
+        <v>8740.032612213843</v>
       </c>
       <c r="R14">
-        <v>56651.71093159728</v>
+        <v>78660.29350992458</v>
       </c>
       <c r="S14">
-        <v>0.0179196781260413</v>
+        <v>0.02058312672941609</v>
       </c>
       <c r="T14">
-        <v>0.02164017055428438</v>
+        <v>0.02487512951158678</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H15">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I15">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J15">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>14344.52298085587</v>
+        <v>9531.664265595406</v>
       </c>
       <c r="R15">
-        <v>86067.13788513522</v>
+        <v>57189.98559357243</v>
       </c>
       <c r="S15">
-        <v>0.04083624438086551</v>
+        <v>0.02244745096795489</v>
       </c>
       <c r="T15">
-        <v>0.03287645708003904</v>
+        <v>0.01808546898221789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H16">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I16">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J16">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>7191.661360030143</v>
+        <v>9402.630073481811</v>
       </c>
       <c r="R16">
-        <v>64724.95224027129</v>
+        <v>84623.67066133629</v>
       </c>
       <c r="S16">
-        <v>0.0204733500859222</v>
+        <v>0.02214357027934162</v>
       </c>
       <c r="T16">
-        <v>0.02472403714847329</v>
+        <v>0.02676095744774987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H17">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I17">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J17">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>20909.0963494821</v>
+        <v>35670.08738100865</v>
       </c>
       <c r="R17">
-        <v>125454.5780968926</v>
+        <v>214020.5242860519</v>
       </c>
       <c r="S17">
-        <v>0.05952438916582006</v>
+        <v>0.084004483917672</v>
       </c>
       <c r="T17">
-        <v>0.04792191484049854</v>
+        <v>0.06768075762495777</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H18">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I18">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J18">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>22375.74478213706</v>
+        <v>43272.13681758284</v>
       </c>
       <c r="R18">
-        <v>134254.4686928224</v>
+        <v>259632.820905497</v>
       </c>
       <c r="S18">
-        <v>0.06369967013519377</v>
+        <v>0.101907614706638</v>
       </c>
       <c r="T18">
-        <v>0.05128335141890823</v>
+        <v>0.08210495737176468</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H19">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I19">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J19">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>11235.59245241483</v>
+        <v>24429.26562923322</v>
       </c>
       <c r="R19">
-        <v>67413.55471448896</v>
+        <v>146575.5937753993</v>
       </c>
       <c r="S19">
-        <v>0.03198568539106933</v>
+        <v>0.0575318986396447</v>
       </c>
       <c r="T19">
-        <v>0.02575104613263251</v>
+        <v>0.04635231723284586</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H20">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I20">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J20">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>25604.22100907341</v>
+        <v>26641.95530660831</v>
       </c>
       <c r="R20">
-        <v>102416.8840362936</v>
+        <v>106567.8212264333</v>
       </c>
       <c r="S20">
-        <v>0.07289055395593419</v>
+        <v>0.06274287142007076</v>
       </c>
       <c r="T20">
-        <v>0.03912183412888975</v>
+        <v>0.03370046355650441</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H21">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I21">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J21">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>12836.73825406209</v>
+        <v>26281.29182922134</v>
       </c>
       <c r="R21">
-        <v>77020.42952437252</v>
+        <v>157687.7509753281</v>
       </c>
       <c r="S21">
-        <v>0.03654385587416777</v>
+        <v>0.06189349449081837</v>
       </c>
       <c r="T21">
-        <v>0.02942073952689831</v>
+        <v>0.04986636907739517</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H22">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I22">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J22">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>14006.46340159233</v>
+        <v>18162.34206464469</v>
       </c>
       <c r="R22">
-        <v>126058.170614331</v>
+        <v>163461.0785818023</v>
       </c>
       <c r="S22">
-        <v>0.0398738503289669</v>
+        <v>0.04277304273409268</v>
       </c>
       <c r="T22">
-        <v>0.04815247883949986</v>
+        <v>0.05169209671602576</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H23">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I23">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J23">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>14988.933291808</v>
+        <v>22033.12098325512</v>
       </c>
       <c r="R23">
-        <v>134900.399626272</v>
+        <v>198298.0888492961</v>
       </c>
       <c r="S23">
-        <v>0.04267076317069984</v>
+        <v>0.05188888206310972</v>
       </c>
       <c r="T23">
-        <v>0.05153008810763798</v>
+        <v>0.06270877493489169</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H24">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I24">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J24">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>7526.433082023328</v>
+        <v>12438.7886692543</v>
       </c>
       <c r="R24">
-        <v>67737.89773820995</v>
+        <v>111949.0980232887</v>
       </c>
       <c r="S24">
-        <v>0.02142638420698443</v>
+        <v>0.02929384533209817</v>
       </c>
       <c r="T24">
-        <v>0.02587494068472978</v>
+        <v>0.03540221104925421</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H25">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I25">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J25">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>17151.60609983755</v>
+        <v>13565.4365065341</v>
       </c>
       <c r="R25">
-        <v>102909.6365990253</v>
+        <v>81392.61903920461</v>
       </c>
       <c r="S25">
-        <v>0.04882749877092947</v>
+        <v>0.03194714609687399</v>
       </c>
       <c r="T25">
-        <v>0.03931005879718703</v>
+        <v>0.0257391861833316</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H26">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I26">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J26">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>8598.999284624477</v>
+        <v>13381.79542439832</v>
       </c>
       <c r="R26">
-        <v>77390.99356162029</v>
+        <v>120436.1588195849</v>
       </c>
       <c r="S26">
-        <v>0.02447978484097777</v>
+        <v>0.03151466399594388</v>
       </c>
       <c r="T26">
-        <v>0.02956228986731094</v>
+        <v>0.03808611581314809</v>
       </c>
     </row>
   </sheetData>
